--- a/combined_statements.xlsx
+++ b/combined_statements.xlsx
@@ -546,7 +546,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45477</v>
+        <v>45474</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -560,29 +560,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TRFINTF</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Transfer in</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>339.59</v>
+        <v>-0.7</v>
       </c>
       <c r="H3" t="n">
-        <v>499.76</v>
+        <v>133.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45477</v>
+        <v>45474</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -596,29 +596,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TRFINTF</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Transfer in</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>114.2</v>
+        <v>-0.03</v>
       </c>
       <c r="H4" t="n">
-        <v>613.96</v>
+        <v>133.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45478</v>
+        <v>45474</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -632,29 +632,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OBP_OUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Online bill payment for TANGERINE MASTERCARD, account ∙∙∙∙5296 (executed at 2024-07-05)</t>
+          <t>Presto Fare/55j5d67r9q</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-123.17</v>
+        <v>-3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>490.79</v>
+        <v>133.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45482</v>
+        <v>45474</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -668,29 +668,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OBP_OUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Online bill payment for TANGERINE MASTERCARD, account ∙∙∙∙5296 (executed at 2024-07-09)</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-150.41</v>
+        <v>0.03</v>
       </c>
       <c r="H6" t="n">
-        <v>340.38</v>
+        <v>137.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45484</v>
+        <v>45474</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -718,15 +718,15 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-330</v>
+        <v>-56</v>
       </c>
       <c r="H7" t="n">
-        <v>10.38</v>
+        <v>137.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45484</v>
+        <v>45474</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -740,29 +740,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OBP_OUT</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Online bill payment for TANGERINE MASTERCARD, account ∙∙∙∙5296 (executed at 2024-07-11)</t>
+          <t>Interest earned</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-9.59</v>
+        <v>0.47</v>
       </c>
       <c r="H8" t="n">
-        <v>0.79</v>
+        <v>193.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45485</v>
+        <v>45474</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -776,29 +776,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TRFINTF</t>
+          <t>E_TRFIN</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Transfer in</t>
+          <t>Interac e-Transfer® Received</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>68.72</v>
+        <v>150</v>
       </c>
       <c r="H9" t="n">
-        <v>69.51000000000001</v>
+        <v>192.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45488</v>
+        <v>45475</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -812,29 +812,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E_TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-23.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>45.79</v>
+        <v>326.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45493</v>
+        <v>45475</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -848,29 +848,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>E_TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Out</t>
+          <t>Presto Fare/55j254v2c7</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-45</v>
+        <v>-6.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0.79</v>
+        <v>325.94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45493</v>
+        <v>45475</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -884,29 +884,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TRFINTF</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Transfer in</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>404.06</v>
+        <v>-0.4</v>
       </c>
       <c r="H12" t="n">
-        <v>404.85</v>
+        <v>332.54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45495</v>
+        <v>45475</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -920,29 +920,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>E_TRFOUT</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Out</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-19.53</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>385.32</v>
+        <v>332.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45496</v>
+        <v>45475</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -956,29 +956,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TRFINTF</t>
+          <t>E_TRFIN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Transfer in</t>
+          <t>Interac e-Transfer® Received</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1518</v>
+        <v>200</v>
       </c>
       <c r="H14" t="n">
-        <v>1903.32</v>
+        <v>333.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45498</v>
+        <v>45475</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -992,29 +992,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>E_TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-330</v>
+        <v>0.1</v>
       </c>
       <c r="H15" t="n">
-        <v>1573.32</v>
+        <v>326.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45499</v>
+        <v>45475</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1028,29 +1028,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OBP_OUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Online bill payment for TANGERINE MASTERCARD, account ∙∙∙∙5296 (executed at 2024-07-26)</t>
+          <t>Shoppers Drug Mart</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-33.48</v>
+        <v>-9.56</v>
       </c>
       <c r="H16" t="n">
-        <v>1539.84</v>
+        <v>316.55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45500</v>
+        <v>45476</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1064,29 +1064,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>E_TRFOUT</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Out</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-17.63</v>
+        <v>-0.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1522.21</v>
+        <v>315.54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45504</v>
+        <v>45476</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1100,29 +1100,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>bills</t>
+          <t>cheq</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>E_TRFOUT</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Out</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-1518</v>
+        <v>-0.44</v>
       </c>
       <c r="H18" t="n">
-        <v>4.21</v>
+        <v>316.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1141,24 +1141,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>E_TRFIN</t>
+          <t>E_TRFOUT</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Received</t>
+          <t>Interac e-Transfer® Out</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>150</v>
+        <v>-26.98</v>
       </c>
       <c r="H19" t="n">
-        <v>192.54</v>
+        <v>288.56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1177,24 +1177,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Interest earned</t>
+          <t>Presto Fare/55j51kmwlx</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.47</v>
+        <v>-6.6</v>
       </c>
       <c r="H20" t="n">
-        <v>193.01</v>
+        <v>281.96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1213,24 +1213,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>E_TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-56</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>137.01</v>
+        <v>282.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1249,24 +1249,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Uber* Eats Pending</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.03</v>
+        <v>-41.13</v>
       </c>
       <c r="H22" t="n">
-        <v>137.04</v>
+        <v>240.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1285,24 +1285,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Presto Fare/55j5d67r9q</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-3.3</v>
+        <v>0.41</v>
       </c>
       <c r="H23" t="n">
-        <v>133.74</v>
+        <v>241.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1330,15 +1330,15 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-0.03</v>
+        <v>-0.87</v>
       </c>
       <c r="H24" t="n">
-        <v>133.71</v>
+        <v>240.44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1357,24 +1357,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-0.7</v>
+        <v>0.08</v>
       </c>
       <c r="H25" t="n">
-        <v>133.01</v>
+        <v>240.11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1393,24 +1393,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>E_TRFIN</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Received</t>
+          <t>Pilot Coffee Union</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>200</v>
+        <v>-7.5</v>
       </c>
       <c r="H26" t="n">
-        <v>333.01</v>
+        <v>232.61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1438,15 +1438,15 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="H27" t="n">
-        <v>332.94</v>
+        <v>232.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1474,15 +1474,15 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-0.4</v>
+        <v>-0.08</v>
       </c>
       <c r="H28" t="n">
-        <v>332.54</v>
+        <v>232.03</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1506,19 +1506,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Presto Fare/55j254v2c7</t>
+          <t>Steamgames.com 4259522</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>-6.6</v>
+        <v>-5.63</v>
       </c>
       <c r="H29" t="n">
-        <v>325.94</v>
+        <v>226.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1546,15 +1546,15 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H30" t="n">
-        <v>326.01</v>
+        <v>226.46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1573,24 +1573,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.1</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>326.11</v>
+        <v>315.94</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1609,19 +1609,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Shoppers Drug Mart</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-9.56</v>
+        <v>-0.1</v>
       </c>
       <c r="H32" t="n">
-        <v>316.55</v>
+        <v>316.01</v>
       </c>
     </row>
     <row r="33">
@@ -1654,15 +1654,15 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-0.44</v>
+        <v>-0.41</v>
       </c>
       <c r="H33" t="n">
-        <v>316.11</v>
+        <v>240.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1681,24 +1681,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>-0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H34" t="n">
-        <v>316.01</v>
+        <v>185.03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1717,24 +1717,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/55j6b7qnqr</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>315.94</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1753,24 +1753,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>-0.4</v>
+        <v>0.03</v>
       </c>
       <c r="H36" t="n">
-        <v>315.54</v>
+        <v>197.03</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1789,24 +1789,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>E_TRFOUT</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Out</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-26.98</v>
+        <v>-0.71</v>
       </c>
       <c r="H37" t="n">
-        <v>288.56</v>
+        <v>196.32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1825,24 +1825,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Presto Fare/55j51kmwlx</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-6.6</v>
+        <v>-0.11</v>
       </c>
       <c r="H38" t="n">
-        <v>281.96</v>
+        <v>196.21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1861,24 +1861,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Uber Canada/Uberone</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.07000000000000001</v>
+        <v>-11.29</v>
       </c>
       <c r="H39" t="n">
-        <v>282.03</v>
+        <v>184.92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1897,24 +1897,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Uber* Eats Pending</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>-41.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>240.9</v>
+        <v>-464.16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1933,24 +1933,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.41</v>
+        <v>-0.03</v>
       </c>
       <c r="H41" t="n">
-        <v>241.31</v>
+        <v>200.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1969,24 +1969,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>E_TRFOUT</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Interac e-Transfer® Out</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>-0.87</v>
+        <v>-75.25</v>
       </c>
       <c r="H42" t="n">
-        <v>240.44</v>
+        <v>109.78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2005,24 +2005,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>-0.41</v>
+        <v>0.84</v>
       </c>
       <c r="H43" t="n">
-        <v>240.03</v>
+        <v>-427.36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2041,24 +2041,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.08</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>240.11</v>
+        <v>-428.17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2077,24 +2077,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Pilot Coffee Union</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>-7.5</v>
+        <v>-0.84</v>
       </c>
       <c r="H45" t="n">
-        <v>232.61</v>
+        <v>-429.01</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2113,24 +2113,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>-0.5</v>
+        <v>0.27</v>
       </c>
       <c r="H46" t="n">
-        <v>232.11</v>
+        <v>-428.74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2149,24 +2149,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Sp Cookery</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>-0.08</v>
+        <v>-27.12</v>
       </c>
       <c r="H47" t="n">
-        <v>232.03</v>
+        <v>-455.86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2185,24 +2185,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Steamgames.com 4259522</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>-5.63</v>
+        <v>-0.27</v>
       </c>
       <c r="H48" t="n">
-        <v>226.4</v>
+        <v>-456.13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2221,19 +2221,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Bloor Street Independe</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.06</v>
+        <v>-84.19</v>
       </c>
       <c r="H49" t="n">
-        <v>226.46</v>
+        <v>-428.2</v>
       </c>
     </row>
     <row r="50">
@@ -2266,10 +2266,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>-0.37</v>
+        <v>-0.7</v>
       </c>
       <c r="H50" t="n">
-        <v>226.09</v>
+        <v>200.33</v>
       </c>
     </row>
     <row r="51">
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>-0.7</v>
+        <v>-0.37</v>
       </c>
       <c r="H52" t="n">
-        <v>200.33</v>
+        <v>226.09</v>
       </c>
     </row>
     <row r="53">
@@ -2374,10 +2374,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>-0.03</v>
+        <v>-0.88</v>
       </c>
       <c r="H53" t="n">
-        <v>200.3</v>
+        <v>-457.01</v>
       </c>
     </row>
     <row r="54">
@@ -2401,19 +2401,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUTTF</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Presto Fare/55j6b7qnqr</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>-3.3</v>
+        <v>-339.59</v>
       </c>
       <c r="H54" t="n">
-        <v>197</v>
+        <v>-229.81</v>
       </c>
     </row>
     <row r="55">
@@ -2437,19 +2437,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.03</v>
+        <v>-3</v>
       </c>
       <c r="H55" t="n">
-        <v>197.03</v>
+        <v>223.03</v>
       </c>
     </row>
     <row r="56">
@@ -2482,10 +2482,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>-0.71</v>
+        <v>-22</v>
       </c>
       <c r="H56" t="n">
-        <v>196.32</v>
+        <v>201.03</v>
       </c>
     </row>
     <row r="57">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>TRFOUTTF</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2518,10 +2518,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>-0.11</v>
+        <v>-114.2</v>
       </c>
       <c r="H57" t="n">
-        <v>196.21</v>
+        <v>-344.01</v>
       </c>
     </row>
     <row r="58">
@@ -2545,19 +2545,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Uber Canada/Uberone</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>-11.29</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>184.92</v>
+        <v>-464.23</v>
       </c>
     </row>
     <row r="59">
@@ -2576,24 +2576,24 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFINTF</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer in</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.11</v>
+        <v>114.2</v>
       </c>
       <c r="H59" t="n">
-        <v>185.03</v>
+        <v>613.96</v>
       </c>
     </row>
     <row r="60">
@@ -2612,24 +2612,24 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>E_TRFOUT</t>
+          <t>TRFINTF</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Out</t>
+          <t>Transfer in</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>-75.25</v>
+        <v>339.59</v>
       </c>
       <c r="H60" t="n">
-        <v>109.78</v>
+        <v>499.76</v>
       </c>
     </row>
     <row r="61">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bloor Street Independe</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>-84.19</v>
+        <v>-0.78</v>
       </c>
       <c r="H61" t="n">
-        <v>-428.2</v>
+        <v>-465.01</v>
       </c>
     </row>
     <row r="62">
@@ -2689,24 +2689,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Dark Horse Bay Bloor</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.84</v>
+        <v>-7.22</v>
       </c>
       <c r="H62" t="n">
-        <v>-427.36</v>
+        <v>-464.23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2725,24 +2725,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>AFT_IN</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Direct deposit from 2325106 ONTARIO</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>-0.8100000000000001</v>
+        <v>923.6799999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>-428.17</v>
+        <v>458.67</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2770,15 +2770,15 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>-0.84</v>
+        <v>-0.7</v>
       </c>
       <c r="H64" t="n">
-        <v>-429.01</v>
+        <v>457.97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2797,24 +2797,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.27</v>
+        <v>-0.03</v>
       </c>
       <c r="H65" t="n">
-        <v>-428.74</v>
+        <v>457.94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2838,19 +2838,19 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sp Cookery</t>
+          <t>Presto Fare/55k1kh5ht9</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>-27.12</v>
+        <v>-3.3</v>
       </c>
       <c r="H66" t="n">
-        <v>-455.86</v>
+        <v>454.64</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2869,24 +2869,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>-0.27</v>
+        <v>0.03</v>
       </c>
       <c r="H67" t="n">
-        <v>-456.13</v>
+        <v>454.67</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2914,15 +2914,15 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>-0.88</v>
+        <v>-0.78</v>
       </c>
       <c r="H68" t="n">
-        <v>-457.01</v>
+        <v>453.89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2941,24 +2941,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Dark Horse Bay Bloor</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>-7.22</v>
+        <v>-0.14</v>
       </c>
       <c r="H69" t="n">
-        <v>-464.23</v>
+        <v>453.75</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2986,15 +2986,15 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="H70" t="n">
-        <v>-464.16</v>
+        <v>376.67</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3008,29 +3008,29 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>OBP_OUT</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Online bill payment for TANGERINE MASTERCARD, account ∙∙∙∙5296 (executed at 2024-07-05)</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-123.17</v>
       </c>
       <c r="H71" t="n">
-        <v>-464.23</v>
+        <v>490.79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3049,24 +3049,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Uber Canada/Ubereats</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>-0.78</v>
+        <v>-77.86</v>
       </c>
       <c r="H72" t="n">
-        <v>-465.01</v>
+        <v>375.89</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3085,24 +3085,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Lcbo/Rao</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>-22</v>
+        <v>-44.8</v>
       </c>
       <c r="H73" t="n">
-        <v>201.03</v>
+        <v>331.87</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45477</v>
+        <v>45479</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3121,24 +3121,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>-3</v>
+        <v>0.73</v>
       </c>
       <c r="H74" t="n">
-        <v>223.03</v>
+        <v>251.84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45477</v>
+        <v>45479</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3157,24 +3157,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TRFOUTTF</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Uber Canada/Ubereats</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>-339.59</v>
+        <v>-72.56</v>
       </c>
       <c r="H75" t="n">
-        <v>-229.81</v>
+        <v>251.11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45477</v>
+        <v>45479</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TRFOUTTF</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3202,15 +3202,15 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>-114.2</v>
+        <v>-0.03</v>
       </c>
       <c r="H76" t="n">
-        <v>-344.01</v>
+        <v>323.67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45478</v>
+        <v>45479</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3229,24 +3229,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AFT_IN</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Direct deposit from 2325106 ONTARIO</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>923.6799999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="H77" t="n">
-        <v>458.67</v>
+        <v>323.7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45478</v>
+        <v>45479</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3265,24 +3265,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>-0.7</v>
+        <v>0.03</v>
       </c>
       <c r="H78" t="n">
-        <v>457.97</v>
+        <v>324.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45478</v>
+        <v>45479</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3301,24 +3301,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/55k478z2jn</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>-0.03</v>
+        <v>-3.3</v>
       </c>
       <c r="H79" t="n">
-        <v>457.94</v>
+        <v>324.37</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45478</v>
+        <v>45479</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3337,24 +3337,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Presto Fare/55k1kh5ht9</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>-3.3</v>
+        <v>-0.03</v>
       </c>
       <c r="H80" t="n">
-        <v>454.64</v>
+        <v>327.67</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45478</v>
+        <v>45479</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3373,24 +3373,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.03</v>
+        <v>-0.7</v>
       </c>
       <c r="H81" t="n">
-        <v>454.67</v>
+        <v>327.7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45478</v>
+        <v>45479</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3409,24 +3409,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>-0.78</v>
+        <v>0.03</v>
       </c>
       <c r="H82" t="n">
-        <v>453.89</v>
+        <v>328.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45478</v>
+        <v>45479</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3454,15 +3454,15 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>-0.14</v>
+        <v>-0.45</v>
       </c>
       <c r="H83" t="n">
-        <v>453.75</v>
+        <v>331.67</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45478</v>
+        <v>45479</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3481,24 +3481,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubereats</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>-77.86</v>
+        <v>-0.2</v>
       </c>
       <c r="H84" t="n">
-        <v>375.89</v>
+        <v>332.12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45478</v>
+        <v>45479</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3526,15 +3526,15 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="H85" t="n">
-        <v>376.67</v>
+        <v>332.32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45478</v>
+        <v>45479</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3558,19 +3558,19 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lcbo/Rao</t>
+          <t>Presto Fare/55k6675hvb</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>-44.8</v>
+        <v>-3.3</v>
       </c>
       <c r="H86" t="n">
-        <v>331.87</v>
+        <v>328.37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3598,15 +3598,15 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.45</v>
+        <v>0.03</v>
       </c>
       <c r="H87" t="n">
-        <v>332.32</v>
+        <v>224.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3634,15 +3634,15 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>-0.2</v>
+        <v>-0.03</v>
       </c>
       <c r="H88" t="n">
-        <v>332.12</v>
+        <v>223.67</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3670,15 +3670,15 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>-0.45</v>
+        <v>-0.7</v>
       </c>
       <c r="H89" t="n">
-        <v>331.67</v>
+        <v>223.7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3702,19 +3702,19 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Presto Fare/55k6675hvb</t>
+          <t>Presto Fare/55k914p6hr</t>
         </is>
       </c>
       <c r="G90" t="n">
         <v>-3.3</v>
       </c>
       <c r="H90" t="n">
-        <v>328.37</v>
+        <v>224.37</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3733,24 +3733,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>E_TRFIN</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Interac e-Transfer® Received</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.03</v>
+        <v>160</v>
       </c>
       <c r="H91" t="n">
-        <v>328.4</v>
+        <v>227.67</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3769,24 +3769,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Scotiabank</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>-0.7</v>
+        <v>-183</v>
       </c>
       <c r="H92" t="n">
-        <v>327.7</v>
+        <v>67.67</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3814,15 +3814,15 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>-0.03</v>
+        <v>-0.44</v>
       </c>
       <c r="H93" t="n">
-        <v>327.67</v>
+        <v>250.67</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3841,24 +3841,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Presto Fare/55k478z2jn</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>-3.3</v>
+        <v>-0.73</v>
       </c>
       <c r="H94" t="n">
-        <v>324.37</v>
+        <v>251.11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45479</v>
+        <v>45481</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3877,24 +3877,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Presto Fare/55kbgbr6r8</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.03</v>
+        <v>-9.9</v>
       </c>
       <c r="H95" t="n">
-        <v>324.4</v>
+        <v>48.67</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45479</v>
+        <v>45481</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3922,15 +3922,15 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>-0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="H96" t="n">
-        <v>323.7</v>
+        <v>58.47</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45479</v>
+        <v>45481</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3958,15 +3958,15 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>-0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="H97" t="n">
-        <v>323.67</v>
+        <v>58.57</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45479</v>
+        <v>45481</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3990,19 +3990,19 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubereats</t>
+          <t>10 Dundas Street</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>-72.56</v>
+        <v>-164.5</v>
       </c>
       <c r="H98" t="n">
-        <v>251.11</v>
+        <v>58.67</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45479</v>
+        <v>45481</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4021,24 +4021,24 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.73</v>
+        <v>-0.5</v>
       </c>
       <c r="H99" t="n">
-        <v>251.84</v>
+        <v>223.17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45480</v>
+        <v>45481</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4057,24 +4057,24 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>-0.73</v>
+        <v>0.1</v>
       </c>
       <c r="H100" t="n">
-        <v>251.11</v>
+        <v>58.57</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45480</v>
+        <v>45482</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4102,15 +4102,15 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>-0.44</v>
+        <v>-0.13</v>
       </c>
       <c r="H101" t="n">
-        <v>250.67</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45480</v>
+        <v>45482</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4134,19 +4134,19 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Scotiabank</t>
+          <t>Presto Fare/55k636ms9r</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>-183</v>
+        <v>-3.3</v>
       </c>
       <c r="H102" t="n">
-        <v>67.67</v>
+        <v>44.64</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45480</v>
+        <v>45482</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4165,24 +4165,24 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>E_TRFIN</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>160</v>
+        <v>-0.03</v>
       </c>
       <c r="H103" t="n">
-        <v>227.67</v>
+        <v>47.94</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45480</v>
+        <v>45482</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4206,19 +4206,19 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Presto Fare/55k914p6hr</t>
+          <t>Mcdonald's</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>-3.3</v>
+        <v>-13.14</v>
       </c>
       <c r="H104" t="n">
-        <v>224.37</v>
+        <v>31.53</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45480</v>
+        <v>45482</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4249,12 +4249,12 @@
         <v>0.03</v>
       </c>
       <c r="H105" t="n">
-        <v>224.4</v>
+        <v>44.67</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45480</v>
+        <v>45482</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4268,29 +4268,29 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>OBP_OUT</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Online bill payment for TANGERINE MASTERCARD, account ∙∙∙∙5296 (executed at 2024-07-09)</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>-0.7</v>
+        <v>-150.41</v>
       </c>
       <c r="H106" t="n">
-        <v>223.7</v>
+        <v>340.38</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45480</v>
+        <v>45482</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4318,15 +4318,15 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>-0.03</v>
+        <v>-0.7</v>
       </c>
       <c r="H107" t="n">
-        <v>223.67</v>
+        <v>47.97</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4345,24 +4345,24 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>-0.5</v>
+        <v>0.13</v>
       </c>
       <c r="H108" t="n">
-        <v>223.17</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4381,24 +4381,24 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>10 Dundas Street</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>-164.5</v>
+        <v>-0.86</v>
       </c>
       <c r="H109" t="n">
-        <v>58.67</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4426,15 +4426,15 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>-0.1</v>
+        <v>-22</v>
       </c>
       <c r="H110" t="n">
-        <v>58.57</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4462,15 +4462,15 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>-0.1</v>
+        <v>-3</v>
       </c>
       <c r="H111" t="n">
-        <v>58.47</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4484,29 +4484,29 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>E_TRFOUT</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Interac e-Transfer® Out</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.1</v>
+        <v>-330</v>
       </c>
       <c r="H112" t="n">
-        <v>58.57</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4520,29 +4520,29 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>OBP_OUT</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Presto Fare/55kbgbr6r8</t>
+          <t>Online bill payment for TANGERINE MASTERCARD, account ∙∙∙∙5296 (executed at 2024-07-11)</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>-9.9</v>
+        <v>-9.59</v>
       </c>
       <c r="H113" t="n">
-        <v>48.67</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4561,24 +4561,24 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Uber Canada/Ubereats</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>-0.7</v>
+        <v>-86.73</v>
       </c>
       <c r="H114" t="n">
-        <v>47.97</v>
+        <v>405.07</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4597,24 +4597,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
       <c r="H115" t="n">
-        <v>47.94</v>
+        <v>496.75</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4638,19 +4638,19 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Presto Fare/55k636ms9r</t>
+          <t>Uber Canada/Ubereats</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>-3.3</v>
+        <v>-5</v>
       </c>
       <c r="H116" t="n">
-        <v>44.64</v>
+        <v>491.75</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4678,15 +4678,15 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H117" t="n">
-        <v>44.67</v>
+        <v>491.8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4705,24 +4705,24 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mcdonald's</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>-13.14</v>
+        <v>0.87</v>
       </c>
       <c r="H118" t="n">
-        <v>31.53</v>
+        <v>405.94</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4741,24 +4741,24 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.13</v>
+        <v>-0.05</v>
       </c>
       <c r="H119" t="n">
-        <v>31.66</v>
+        <v>405.89</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4786,15 +4786,15 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>-0.86</v>
+        <v>-0.27</v>
       </c>
       <c r="H120" t="n">
-        <v>30.8</v>
+        <v>405.62</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4822,15 +4822,15 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>-0.13</v>
+        <v>-0.87</v>
       </c>
       <c r="H121" t="n">
-        <v>30.67</v>
+        <v>404.75</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45484</v>
+        <v>45485</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>TRFOUTTF</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4858,15 +4858,15 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>-3</v>
+        <v>-68.72</v>
       </c>
       <c r="H122" t="n">
-        <v>27.67</v>
+        <v>665.75</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45484</v>
+        <v>45485</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4885,19 +4885,19 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/55l25gztdk</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>-22</v>
+        <v>-3.3</v>
       </c>
       <c r="H123" t="n">
-        <v>5.67</v>
+        <v>496.72</v>
       </c>
     </row>
     <row r="124">
@@ -4921,19 +4921,19 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>AFT_IN</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Direct deposit from 2325106 ONTARIO</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>728.8</v>
+        <v>-0.7</v>
       </c>
       <c r="H124" t="n">
-        <v>734.47</v>
+        <v>500.05</v>
       </c>
     </row>
     <row r="125">
@@ -4957,19 +4957,19 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>E_TRFOUT</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Out</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>-165</v>
+        <v>-0.03</v>
       </c>
       <c r="H125" t="n">
-        <v>500.75</v>
+        <v>500.02</v>
       </c>
     </row>
     <row r="126">
@@ -4993,19 +4993,19 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>AFT_IN</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Direct deposit from 2325106 ONTARIO</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>-0.7</v>
+        <v>728.8</v>
       </c>
       <c r="H126" t="n">
-        <v>500.05</v>
+        <v>734.47</v>
       </c>
     </row>
     <row r="127">
@@ -5024,24 +5024,24 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>TRFINTF</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Transfer in</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>-0.03</v>
+        <v>68.72</v>
       </c>
       <c r="H127" t="n">
-        <v>500.02</v>
+        <v>69.51000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5065,24 +5065,24 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>E_TRFOUT</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Presto Fare/55l25gztdk</t>
+          <t>Interac e-Transfer® Out</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>-3.3</v>
+        <v>-165</v>
       </c>
       <c r="H128" t="n">
-        <v>496.72</v>
+        <v>500.75</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -5101,24 +5101,24 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Sonnet Insurance Compa</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.03</v>
+        <v>-33.48</v>
       </c>
       <c r="H129" t="n">
-        <v>496.75</v>
+        <v>339.08</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -5142,19 +5142,19 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubereats</t>
+          <t>Shoppers Drug Mart</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>-5</v>
+        <v>-12.03</v>
       </c>
       <c r="H130" t="n">
-        <v>491.75</v>
+        <v>372.56</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -5173,24 +5173,24 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Pizzaiolo 707 Yonge</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.05</v>
+        <v>-10</v>
       </c>
       <c r="H131" t="n">
-        <v>491.8</v>
+        <v>384.59</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -5209,24 +5209,24 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubereats</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>-86.73</v>
+        <v>0.06</v>
       </c>
       <c r="H132" t="n">
-        <v>405.07</v>
+        <v>394.59</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -5245,24 +5245,24 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Dark Horse Bay Bloor</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.87</v>
+        <v>-6.22</v>
       </c>
       <c r="H133" t="n">
-        <v>405.94</v>
+        <v>394.53</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5281,24 +5281,24 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/55lb8htcwv</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>-0.05</v>
+        <v>-3.3</v>
       </c>
       <c r="H134" t="n">
-        <v>405.89</v>
+        <v>401.45</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5317,24 +5317,24 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>-0.27</v>
+        <v>0.03</v>
       </c>
       <c r="H135" t="n">
-        <v>405.62</v>
+        <v>401.48</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5362,15 +5362,15 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>-0.87</v>
+        <v>-0.7</v>
       </c>
       <c r="H136" t="n">
-        <v>404.75</v>
+        <v>400.78</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>TRFOUTTF</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5398,15 +5398,15 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>-68.72</v>
+        <v>-0.03</v>
       </c>
       <c r="H137" t="n">
-        <v>665.75</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45486</v>
+        <v>45487</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5430,19 +5430,19 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Presto Fare/55lb8htcwv</t>
+          <t>Bloor Street Independe</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>-3.3</v>
+        <v>-48.32</v>
       </c>
       <c r="H138" t="n">
-        <v>401.45</v>
+        <v>289.92</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45486</v>
+        <v>45487</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5461,24 +5461,24 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="H139" t="n">
-        <v>401.48</v>
+        <v>338.24</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45486</v>
+        <v>45487</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5497,24 +5497,24 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>-0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H140" t="n">
-        <v>400.78</v>
+        <v>338.34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45486</v>
+        <v>45487</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5542,15 +5542,15 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="H141" t="n">
-        <v>400.75</v>
+        <v>338.24</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45486</v>
+        <v>45487</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5569,24 +5569,24 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Dark Horse Bay Bloor</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>-6.22</v>
+        <v>-0.78</v>
       </c>
       <c r="H142" t="n">
-        <v>394.53</v>
+        <v>338.3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45486</v>
+        <v>45488</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5614,15 +5614,15 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="H143" t="n">
-        <v>394.59</v>
+        <v>289.28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45486</v>
+        <v>45488</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5636,29 +5636,29 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>E_TRFOUT</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Pizzaiolo 707 Yonge</t>
+          <t>Interac e-Transfer® Out</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>-10</v>
+        <v>-23.72</v>
       </c>
       <c r="H144" t="n">
-        <v>384.59</v>
+        <v>45.79</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45486</v>
+        <v>45488</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5677,24 +5677,24 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Shoppers Drug Mart</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>-12.03</v>
+        <v>0.48</v>
       </c>
       <c r="H145" t="n">
-        <v>372.56</v>
+        <v>287.75</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45486</v>
+        <v>45488</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5713,24 +5713,24 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sonnet Insurance Compa</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>-33.48</v>
+        <v>0.12</v>
       </c>
       <c r="H146" t="n">
-        <v>339.08</v>
+        <v>290.04</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45487</v>
+        <v>45488</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5758,15 +5758,15 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>-0.78</v>
+        <v>-0.12</v>
       </c>
       <c r="H147" t="n">
-        <v>338.3</v>
+        <v>289.92</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45487</v>
+        <v>45488</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5794,15 +5794,15 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>-0.06</v>
+        <v>-0.97</v>
       </c>
       <c r="H148" t="n">
-        <v>338.24</v>
+        <v>288.95</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45487</v>
+        <v>45488</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5821,24 +5821,24 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.1</v>
+        <v>-0.48</v>
       </c>
       <c r="H149" t="n">
-        <v>338.34</v>
+        <v>287.27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45487</v>
+        <v>45488</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5866,15 +5866,15 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>-0.1</v>
+        <v>-0.52</v>
       </c>
       <c r="H150" t="n">
-        <v>338.24</v>
+        <v>288.76</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45487</v>
+        <v>45488</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5893,19 +5893,19 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Bloor Street Independe</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>-48.32</v>
+        <v>-0.33</v>
       </c>
       <c r="H151" t="n">
-        <v>289.92</v>
+        <v>288.43</v>
       </c>
     </row>
     <row r="152">
@@ -5929,24 +5929,24 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.12</v>
+        <v>-0.68</v>
       </c>
       <c r="H152" t="n">
-        <v>290.04</v>
+        <v>287.75</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45488</v>
+        <v>45490</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5974,15 +5974,15 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>-0.12</v>
+        <v>-0.61</v>
       </c>
       <c r="H153" t="n">
-        <v>289.92</v>
+        <v>282.94</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45488</v>
+        <v>45490</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -6010,15 +6010,15 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>-0.97</v>
+        <v>-0.2</v>
       </c>
       <c r="H154" t="n">
-        <v>288.95</v>
+        <v>283.55</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45488</v>
+        <v>45490</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -6046,15 +6046,15 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="H155" t="n">
-        <v>289.28</v>
+        <v>283.75</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45488</v>
+        <v>45490</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -6073,24 +6073,24 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/55m8jmr59p</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>-0.52</v>
+        <v>-3.3</v>
       </c>
       <c r="H156" t="n">
-        <v>288.76</v>
+        <v>283.72</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45488</v>
+        <v>45490</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -6118,15 +6118,15 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>-0.33</v>
+        <v>-0.03</v>
       </c>
       <c r="H157" t="n">
-        <v>288.43</v>
+        <v>287.02</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45488</v>
+        <v>45490</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -6154,15 +6154,15 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>-0.68</v>
+        <v>-0.7</v>
       </c>
       <c r="H158" t="n">
-        <v>287.75</v>
+        <v>287.05</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45488</v>
+        <v>45490</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -6181,24 +6181,24 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Mcdonald's</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>-0.48</v>
+        <v>-20.39</v>
       </c>
       <c r="H159" t="n">
-        <v>287.27</v>
+        <v>262.75</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45488</v>
+        <v>45490</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="H160" t="n">
-        <v>287.75</v>
+        <v>283.14</v>
       </c>
     </row>
     <row r="161">
@@ -6262,10 +6262,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>-0.7</v>
+        <v>-0.62</v>
       </c>
       <c r="H161" t="n">
-        <v>287.05</v>
+        <v>262.02</v>
       </c>
     </row>
     <row r="162">
@@ -6289,19 +6289,19 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Steam Purchase</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>-0.03</v>
+        <v>-61.89</v>
       </c>
       <c r="H162" t="n">
-        <v>287.02</v>
+        <v>200.13</v>
       </c>
     </row>
     <row r="163">
@@ -6325,19 +6325,19 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Presto Fare/55m8jmr59p</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>-3.3</v>
+        <v>-0.11</v>
       </c>
       <c r="H163" t="n">
-        <v>283.72</v>
+        <v>262.64</v>
       </c>
     </row>
     <row r="164">
@@ -6370,15 +6370,15 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.03</v>
+        <v>0.62</v>
       </c>
       <c r="H164" t="n">
-        <v>283.75</v>
+        <v>200.75</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6397,24 +6397,24 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/55mb6hmjvn</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>-0.2</v>
+        <v>-3.3</v>
       </c>
       <c r="H165" t="n">
-        <v>283.55</v>
+        <v>172.45</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -6433,24 +6433,24 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>-0.61</v>
+        <v>0.03</v>
       </c>
       <c r="H166" t="n">
-        <v>282.94</v>
+        <v>172.48</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -6469,24 +6469,24 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.2</v>
+        <v>-0.03</v>
       </c>
       <c r="H167" t="n">
-        <v>283.14</v>
+        <v>171.75</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -6505,24 +6505,24 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Mcdonald's</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>-20.39</v>
+        <v>-0.7</v>
       </c>
       <c r="H168" t="n">
-        <v>262.75</v>
+        <v>171.78</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -6550,15 +6550,15 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>-0.11</v>
+        <v>-0.42</v>
       </c>
       <c r="H169" t="n">
-        <v>262.64</v>
+        <v>129.75</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -6577,24 +6577,24 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Subway 22983</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>-0.62</v>
+        <v>-41.55</v>
       </c>
       <c r="H170" t="n">
-        <v>262.02</v>
+        <v>130.2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -6613,24 +6613,24 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Steam Purchase</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>-61.89</v>
+        <v>-22</v>
       </c>
       <c r="H171" t="n">
-        <v>200.13</v>
+        <v>175.75</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -6649,19 +6649,19 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.62</v>
+        <v>-3</v>
       </c>
       <c r="H172" t="n">
-        <v>200.75</v>
+        <v>197.75</v>
       </c>
     </row>
     <row r="173">
@@ -6685,19 +6685,19 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Presto Fare/55mb6hmjvn</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>-3.3</v>
+        <v>-0.45</v>
       </c>
       <c r="H173" t="n">
-        <v>172.45</v>
+        <v>130.17</v>
       </c>
     </row>
     <row r="174">
@@ -6730,15 +6730,15 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.03</v>
+        <v>0.42</v>
       </c>
       <c r="H174" t="n">
-        <v>172.48</v>
+        <v>130.62</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6766,15 +6766,15 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>-0.7</v>
+        <v>-0.03</v>
       </c>
       <c r="H175" t="n">
-        <v>171.78</v>
+        <v>540.8</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -6793,24 +6793,24 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
       <c r="H176" t="n">
-        <v>171.75</v>
+        <v>541.53</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6834,19 +6834,19 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Subway 22983</t>
+          <t>Presto Fare/55m6fjbbf5</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>-41.55</v>
+        <v>-3.3</v>
       </c>
       <c r="H177" t="n">
-        <v>130.2</v>
+        <v>541.5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6865,24 +6865,24 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>AFT_IN</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Direct deposit from 2325106 ONTARIO</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.42</v>
+        <v>415.05</v>
       </c>
       <c r="H178" t="n">
-        <v>130.62</v>
+        <v>544.8</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6910,15 +6910,15 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>-0.45</v>
+        <v>-0.7</v>
       </c>
       <c r="H179" t="n">
-        <v>130.17</v>
+        <v>540.83</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45491</v>
+        <v>45493</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6946,15 +6946,15 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>-0.42</v>
+        <v>-0.03</v>
       </c>
       <c r="H180" t="n">
-        <v>129.75</v>
+        <v>132.74</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45491</v>
+        <v>45493</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>TRFOUTTF</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6982,15 +6982,15 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>-3</v>
+        <v>-404.06</v>
       </c>
       <c r="H181" t="n">
-        <v>197.75</v>
+        <v>136.74</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45491</v>
+        <v>45493</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -7004,29 +7004,29 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>TRFINTF</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Transfer in</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>-22</v>
+        <v>404.06</v>
       </c>
       <c r="H182" t="n">
-        <v>175.75</v>
+        <v>404.85</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -7045,24 +7045,24 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>AFT_IN</t>
+          <t>E_TRFIN</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Direct deposit from 2325106 ONTARIO</t>
+          <t>Interac e-Transfer® Received</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>415.05</v>
+        <v>300</v>
       </c>
       <c r="H183" t="n">
-        <v>544.8</v>
+        <v>428.74</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -7076,29 +7076,29 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>E_TRFOUT</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Presto Fare/55m6fjbbf5</t>
+          <t>Interac e-Transfer® Out</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-3.3</v>
+        <v>-45</v>
       </c>
       <c r="H184" t="n">
-        <v>541.5</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -7129,12 +7129,12 @@
         <v>0.03</v>
       </c>
       <c r="H185" t="n">
-        <v>541.53</v>
+        <v>136.77</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -7153,24 +7153,24 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/55ml25vn7f</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>-0.7</v>
+        <v>-3.3</v>
       </c>
       <c r="H186" t="n">
-        <v>540.83</v>
+        <v>133.47</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>-0.03</v>
+        <v>-0.7</v>
       </c>
       <c r="H187" t="n">
-        <v>540.8</v>
+        <v>132.77</v>
       </c>
     </row>
     <row r="188">
@@ -7225,19 +7225,19 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.03</v>
+        <v>-0.7</v>
       </c>
       <c r="H188" t="n">
-        <v>136.77</v>
+        <v>128.74</v>
       </c>
     </row>
     <row r="189">
@@ -7266,14 +7266,14 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Presto Fare/55ml25vn7f</t>
+          <t>Presto Fare/55mndgstwh</t>
         </is>
       </c>
       <c r="G189" t="n">
         <v>-3.3</v>
       </c>
       <c r="H189" t="n">
-        <v>133.47</v>
+        <v>129.44</v>
       </c>
     </row>
     <row r="190">
@@ -7297,19 +7297,19 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>-0.7</v>
+        <v>0.03</v>
       </c>
       <c r="H190" t="n">
-        <v>132.77</v>
+        <v>129.47</v>
       </c>
     </row>
     <row r="191">
@@ -7345,12 +7345,12 @@
         <v>-0.03</v>
       </c>
       <c r="H191" t="n">
-        <v>132.74</v>
+        <v>129.44</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45493</v>
+        <v>45494</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -7374,19 +7374,19 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Presto Fare/55mndgstwh</t>
+          <t>Five Guys 1549</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-3.3</v>
+        <v>-12.46</v>
       </c>
       <c r="H192" t="n">
-        <v>129.44</v>
+        <v>408.28</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45493</v>
+        <v>45494</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -7414,15 +7414,15 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="H193" t="n">
-        <v>129.47</v>
+        <v>408.4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45493</v>
+        <v>45494</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -7450,15 +7450,15 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>-0.03</v>
+        <v>-0.54</v>
       </c>
       <c r="H194" t="n">
-        <v>129.44</v>
+        <v>407.86</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45493</v>
+        <v>45494</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -7477,24 +7477,24 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Ventureplanner.ai</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>-0.7</v>
+        <v>-5</v>
       </c>
       <c r="H195" t="n">
-        <v>128.74</v>
+        <v>393.74</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45493</v>
+        <v>45494</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -7513,24 +7513,24 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>E_TRFIN</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>300</v>
+        <v>-0.12</v>
       </c>
       <c r="H196" t="n">
-        <v>428.74</v>
+        <v>407.74</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45493</v>
+        <v>45494</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -7549,19 +7549,19 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>TRFOUTTF</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>-404.06</v>
+        <v>0.08</v>
       </c>
       <c r="H197" t="n">
-        <v>136.74</v>
+        <v>407.82</v>
       </c>
     </row>
     <row r="198">
@@ -7590,14 +7590,14 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Presto Fare/55n2b2rt85</t>
+          <t>Mcdonald's</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>-3.3</v>
+        <v>-8.18</v>
       </c>
       <c r="H198" t="n">
-        <v>425.44</v>
+        <v>399.64</v>
       </c>
     </row>
     <row r="199">
@@ -7621,19 +7621,19 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.03</v>
+        <v>-0.82</v>
       </c>
       <c r="H199" t="n">
-        <v>425.47</v>
+        <v>398.82</v>
       </c>
     </row>
     <row r="200">
@@ -7666,10 +7666,10 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>-0.7</v>
+        <v>-0.08</v>
       </c>
       <c r="H200" t="n">
-        <v>424.77</v>
+        <v>398.74</v>
       </c>
     </row>
     <row r="201">
@@ -7705,7 +7705,7 @@
         <v>-0.03</v>
       </c>
       <c r="H201" t="n">
-        <v>424.74</v>
+        <v>420.74</v>
       </c>
     </row>
     <row r="202">
@@ -7729,19 +7729,19 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Presto Fare/55n01p95z2</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>-3.3</v>
+        <v>-0.7</v>
       </c>
       <c r="H202" t="n">
-        <v>421.44</v>
+        <v>420.77</v>
       </c>
     </row>
     <row r="203">
@@ -7765,19 +7765,19 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="H203" t="n">
-        <v>421.47</v>
+        <v>424.74</v>
       </c>
     </row>
     <row r="204">
@@ -7801,19 +7801,19 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/55n01p95z2</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>-0.7</v>
+        <v>-3.3</v>
       </c>
       <c r="H204" t="n">
-        <v>420.77</v>
+        <v>421.44</v>
       </c>
     </row>
     <row r="205">
@@ -7846,10 +7846,10 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>-0.03</v>
+        <v>-0.7</v>
       </c>
       <c r="H205" t="n">
-        <v>420.74</v>
+        <v>424.77</v>
       </c>
     </row>
     <row r="206">
@@ -7873,19 +7873,19 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Five Guys 1549</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>-12.46</v>
+        <v>0.03</v>
       </c>
       <c r="H206" t="n">
-        <v>408.28</v>
+        <v>425.47</v>
       </c>
     </row>
     <row r="207">
@@ -7909,19 +7909,19 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Presto Fare/55n2b2rt85</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.12</v>
+        <v>-3.3</v>
       </c>
       <c r="H207" t="n">
-        <v>408.4</v>
+        <v>425.44</v>
       </c>
     </row>
     <row r="208">
@@ -7945,24 +7945,24 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>-0.54</v>
+        <v>0.03</v>
       </c>
       <c r="H208" t="n">
-        <v>407.86</v>
+        <v>421.47</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45494</v>
+        <v>45495</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -7981,24 +7981,24 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Uber Canada/Ubertrip</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>-0.12</v>
+        <v>-11.41</v>
       </c>
       <c r="H209" t="n">
-        <v>407.74</v>
+        <v>340.55</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45494</v>
+        <v>45495</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -8026,15 +8026,15 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="H210" t="n">
-        <v>407.82</v>
+        <v>340.66</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45494</v>
+        <v>45495</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -8053,24 +8053,24 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Mcdonald's</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>-8.18</v>
+        <v>-0.1</v>
       </c>
       <c r="H211" t="n">
-        <v>399.64</v>
+        <v>340.56</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45494</v>
+        <v>45495</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -8098,15 +8098,15 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>-0.82</v>
+        <v>-0.31</v>
       </c>
       <c r="H212" t="n">
-        <v>398.82</v>
+        <v>340.25</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45494</v>
+        <v>45495</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -8134,15 +8134,15 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>-0.08</v>
+        <v>-0.4</v>
       </c>
       <c r="H213" t="n">
-        <v>398.74</v>
+        <v>339.85</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45494</v>
+        <v>45495</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -8161,19 +8161,19 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Ventureplanner.ai</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>-5</v>
+        <v>-0.11</v>
       </c>
       <c r="H214" t="n">
-        <v>393.74</v>
+        <v>339.74</v>
       </c>
     </row>
     <row r="215">
@@ -8197,19 +8197,19 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>-0.05</v>
+        <v>0.19</v>
       </c>
       <c r="H215" t="n">
-        <v>393.69</v>
+        <v>284.13</v>
       </c>
     </row>
     <row r="216">
@@ -8242,10 +8242,10 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
       <c r="H216" t="n">
-        <v>393.74</v>
+        <v>339.51</v>
       </c>
     </row>
     <row r="217">
@@ -8269,19 +8269,19 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SPEND_REFUND</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>UBER CANADA TORONTO ON</t>
+          <t>Tokyo Smoke 333 Yonge</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>11.41</v>
+        <v>-19.21</v>
       </c>
       <c r="H217" t="n">
-        <v>405.15</v>
+        <v>283.94</v>
       </c>
     </row>
     <row r="218">
@@ -8305,19 +8305,19 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Presto Fare/55n4pnjxjd</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>-3.3</v>
+        <v>-0.03</v>
       </c>
       <c r="H218" t="n">
-        <v>401.85</v>
+        <v>303.15</v>
       </c>
     </row>
     <row r="219">
@@ -8341,19 +8341,19 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.03</v>
+        <v>-0.36</v>
       </c>
       <c r="H219" t="n">
-        <v>401.88</v>
+        <v>303.18</v>
       </c>
     </row>
     <row r="220">
@@ -8377,19 +8377,19 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Flixbus.com</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>-0.7</v>
+        <v>-35.97</v>
       </c>
       <c r="H220" t="n">
-        <v>401.18</v>
+        <v>303.54</v>
       </c>
     </row>
     <row r="221">
@@ -8413,19 +8413,19 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Uber Canada/Ubertrip</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>-0.03</v>
+        <v>-39.69</v>
       </c>
       <c r="H221" t="n">
-        <v>401.15</v>
+        <v>351.96</v>
       </c>
     </row>
     <row r="222">
@@ -8449,19 +8449,19 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubertrip</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>-10</v>
+        <v>-0.59</v>
       </c>
       <c r="H222" t="n">
-        <v>391.15</v>
+        <v>339.15</v>
       </c>
     </row>
     <row r="223">
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H223" t="n">
-        <v>391.25</v>
+        <v>391.65</v>
       </c>
     </row>
     <row r="224">
@@ -8530,10 +8530,10 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H224" t="n">
-        <v>391.65</v>
+        <v>391.25</v>
       </c>
     </row>
     <row r="225">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>-39.69</v>
+        <v>-10</v>
       </c>
       <c r="H225" t="n">
-        <v>351.96</v>
+        <v>391.15</v>
       </c>
     </row>
     <row r="226">
@@ -8593,19 +8593,19 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubertrip</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>-11.41</v>
+        <v>-0.03</v>
       </c>
       <c r="H226" t="n">
-        <v>340.55</v>
+        <v>401.15</v>
       </c>
     </row>
     <row r="227">
@@ -8629,19 +8629,19 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.11</v>
+        <v>-0.7</v>
       </c>
       <c r="H227" t="n">
-        <v>340.66</v>
+        <v>401.18</v>
       </c>
     </row>
     <row r="228">
@@ -8665,19 +8665,19 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>-0.1</v>
+        <v>0.03</v>
       </c>
       <c r="H228" t="n">
-        <v>340.56</v>
+        <v>401.88</v>
       </c>
     </row>
     <row r="229">
@@ -8701,19 +8701,19 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/55n4pnjxjd</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>-0.31</v>
+        <v>-3.3</v>
       </c>
       <c r="H229" t="n">
-        <v>340.25</v>
+        <v>401.85</v>
       </c>
     </row>
     <row r="230">
@@ -8737,19 +8737,19 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND_REFUND</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>UBER CANADA TORONTO ON</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>-0.4</v>
+        <v>11.41</v>
       </c>
       <c r="H230" t="n">
-        <v>339.85</v>
+        <v>405.15</v>
       </c>
     </row>
     <row r="231">
@@ -8773,19 +8773,19 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>-0.11</v>
+        <v>0.05</v>
       </c>
       <c r="H231" t="n">
-        <v>339.74</v>
+        <v>393.74</v>
       </c>
     </row>
     <row r="232">
@@ -8818,10 +8818,10 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>-0.59</v>
+        <v>-0.05</v>
       </c>
       <c r="H232" t="n">
-        <v>339.15</v>
+        <v>393.69</v>
       </c>
     </row>
     <row r="233">
@@ -8840,29 +8840,29 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>E_TRFOUT</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Interac e-Transfer® Out</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.36</v>
+        <v>-19.53</v>
       </c>
       <c r="H233" t="n">
-        <v>339.51</v>
+        <v>385.32</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -8881,24 +8881,24 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Flixbus.com</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>-35.97</v>
+        <v>-0.03</v>
       </c>
       <c r="H234" t="n">
-        <v>303.54</v>
+        <v>260.15</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -8926,15 +8926,15 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>-0.36</v>
+        <v>-0.51</v>
       </c>
       <c r="H235" t="n">
-        <v>303.18</v>
+        <v>259.64</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -8962,15 +8962,15 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>-0.03</v>
+        <v>-0.17</v>
       </c>
       <c r="H236" t="n">
-        <v>303.15</v>
+        <v>259.47</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -8989,24 +8989,24 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Tokyo Smoke 333 Yonge</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>-19.21</v>
+        <v>-0.05</v>
       </c>
       <c r="H237" t="n">
-        <v>283.94</v>
+        <v>259.42</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -9025,19 +9025,19 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Uber Canada/Ubereats</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.19</v>
+        <v>-50.83</v>
       </c>
       <c r="H238" t="n">
-        <v>284.13</v>
+        <v>208.59</v>
       </c>
     </row>
     <row r="239">
@@ -9061,19 +9061,19 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>-0.19</v>
+        <v>0.51</v>
       </c>
       <c r="H239" t="n">
-        <v>283.94</v>
+        <v>209.1</v>
       </c>
     </row>
     <row r="240">
@@ -9106,10 +9106,10 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>-0.79</v>
+        <v>-0.03</v>
       </c>
       <c r="H240" t="n">
-        <v>283.15</v>
+        <v>191.28</v>
       </c>
     </row>
     <row r="241">
@@ -9133,19 +9133,19 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>E_TRFIN</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Received</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1518</v>
+        <v>0.05</v>
       </c>
       <c r="H241" t="n">
-        <v>1801.15</v>
+        <v>204.15</v>
       </c>
     </row>
     <row r="242">
@@ -9169,19 +9169,19 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUTTF</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.03</v>
+        <v>-1518</v>
       </c>
       <c r="H242" t="n">
-        <v>283.18</v>
+        <v>283.15</v>
       </c>
     </row>
     <row r="243">
@@ -9205,19 +9205,19 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Presto Fare/55n79psbnw</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>-3.3</v>
+        <v>-0.13</v>
       </c>
       <c r="H243" t="n">
-        <v>279.88</v>
+        <v>191.15</v>
       </c>
     </row>
     <row r="244">
@@ -9241,19 +9241,19 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>-0.7</v>
+        <v>-12.97</v>
       </c>
       <c r="H244" t="n">
-        <v>279.18</v>
+        <v>191.18</v>
       </c>
     </row>
     <row r="245">
@@ -9277,19 +9277,19 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>-0.03</v>
+        <v>0.13</v>
       </c>
       <c r="H245" t="n">
-        <v>279.15</v>
+        <v>191.31</v>
       </c>
     </row>
     <row r="246">
@@ -9313,19 +9313,19 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.15</v>
+        <v>-0.15</v>
       </c>
       <c r="H246" t="n">
-        <v>279.3</v>
+        <v>260.18</v>
       </c>
     </row>
     <row r="247">
@@ -9354,14 +9354,14 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubertrip</t>
+          <t>Uber Canada/Ubereats</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>-15.3</v>
+        <v>-5</v>
       </c>
       <c r="H247" t="n">
-        <v>264</v>
+        <v>204.1</v>
       </c>
     </row>
     <row r="248">
@@ -9385,19 +9385,19 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubertrip</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>-3</v>
+        <v>-0.7</v>
       </c>
       <c r="H248" t="n">
-        <v>261</v>
+        <v>260.33</v>
       </c>
     </row>
     <row r="249">
@@ -9421,19 +9421,19 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.03</v>
+        <v>-0.7</v>
       </c>
       <c r="H249" t="n">
-        <v>261.03</v>
+        <v>279.18</v>
       </c>
     </row>
     <row r="250">
@@ -9457,19 +9457,19 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Uber Canada/Ubertrip</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>-0.7</v>
+        <v>-3</v>
       </c>
       <c r="H250" t="n">
-        <v>260.33</v>
+        <v>261</v>
       </c>
     </row>
     <row r="251">
@@ -9488,24 +9488,24 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>TRFINTF</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Transfer in</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>-0.15</v>
+        <v>1518</v>
       </c>
       <c r="H251" t="n">
-        <v>260.18</v>
+        <v>1903.32</v>
       </c>
     </row>
     <row r="252">
@@ -9538,10 +9538,10 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>-0.03</v>
+        <v>-0.19</v>
       </c>
       <c r="H252" t="n">
-        <v>260.15</v>
+        <v>283.94</v>
       </c>
     </row>
     <row r="253">
@@ -9565,19 +9565,19 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>-0.51</v>
+        <v>0.03</v>
       </c>
       <c r="H253" t="n">
-        <v>259.64</v>
+        <v>261.03</v>
       </c>
     </row>
     <row r="254">
@@ -9601,19 +9601,19 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>E_TRFIN</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Interac e-Transfer® Received</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>-0.17</v>
+        <v>1518</v>
       </c>
       <c r="H254" t="n">
-        <v>259.47</v>
+        <v>1801.15</v>
       </c>
     </row>
     <row r="255">
@@ -9637,19 +9637,19 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>-0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H255" t="n">
-        <v>259.42</v>
+        <v>283.18</v>
       </c>
     </row>
     <row r="256">
@@ -9673,19 +9673,19 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubereats</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>-50.83</v>
+        <v>-0.79</v>
       </c>
       <c r="H256" t="n">
-        <v>208.59</v>
+        <v>283.15</v>
       </c>
     </row>
     <row r="257">
@@ -9709,19 +9709,19 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.51</v>
+        <v>-0.03</v>
       </c>
       <c r="H257" t="n">
-        <v>209.1</v>
+        <v>279.15</v>
       </c>
     </row>
     <row r="258">
@@ -9745,19 +9745,19 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubereats</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>-5</v>
+        <v>0.15</v>
       </c>
       <c r="H258" t="n">
-        <v>204.1</v>
+        <v>279.3</v>
       </c>
     </row>
     <row r="259">
@@ -9781,19 +9781,19 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Uber Canada/Ubertrip</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.05</v>
+        <v>-15.3</v>
       </c>
       <c r="H259" t="n">
-        <v>204.15</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260">
@@ -9822,19 +9822,19 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Presto Fare/55n79psbnw</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>-12.97</v>
+        <v>-3.3</v>
       </c>
       <c r="H260" t="n">
-        <v>191.18</v>
+        <v>279.88</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -9853,24 +9853,24 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Uber* Pending</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.13</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="H261" t="n">
-        <v>191.31</v>
+        <v>163.49</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -9889,24 +9889,24 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Uber* Pending</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>-0.03</v>
+        <v>-14</v>
       </c>
       <c r="H262" t="n">
-        <v>191.28</v>
+        <v>173.15</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -9925,24 +9925,24 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>-0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H263" t="n">
-        <v>191.15</v>
+        <v>163.59</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>TRFOUTTF</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -9970,10 +9970,10 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>-1518</v>
+        <v>-0.14</v>
       </c>
       <c r="H264" t="n">
-        <v>283.15</v>
+        <v>163.45</v>
       </c>
     </row>
     <row r="265">
@@ -9997,19 +9997,19 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Presto Fare/55ndd2ndfg</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>-3.3</v>
+        <v>-0.1</v>
       </c>
       <c r="H265" t="n">
-        <v>187.85</v>
+        <v>163.35</v>
       </c>
     </row>
     <row r="266">
@@ -10042,10 +10042,10 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="H266" t="n">
-        <v>187.88</v>
+        <v>173.29</v>
       </c>
     </row>
     <row r="267">
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>-0.03</v>
+        <v>-0.7</v>
       </c>
       <c r="H267" t="n">
-        <v>187.85</v>
+        <v>187.15</v>
       </c>
     </row>
     <row r="268">
@@ -10114,10 +10114,10 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>-0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="H268" t="n">
-        <v>187.15</v>
+        <v>163.15</v>
       </c>
     </row>
     <row r="269">
@@ -10141,19 +10141,19 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Uber* Pending</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>-14</v>
+        <v>0.03</v>
       </c>
       <c r="H269" t="n">
-        <v>173.15</v>
+        <v>187.88</v>
       </c>
     </row>
     <row r="270">
@@ -10177,19 +10177,19 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Presto Fare/55ndd2ndfg</t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.14</v>
+        <v>-3.3</v>
       </c>
       <c r="H270" t="n">
-        <v>173.29</v>
+        <v>187.85</v>
       </c>
     </row>
     <row r="271">
@@ -10213,24 +10213,24 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Uber* Pending</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G271" t="n">
-        <v>-9.800000000000001</v>
+        <v>-0.03</v>
       </c>
       <c r="H271" t="n">
-        <v>163.49</v>
+        <v>187.85</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -10249,24 +10249,24 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.1</v>
+        <v>-22</v>
       </c>
       <c r="H272" t="n">
-        <v>163.59</v>
+        <v>138.15</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -10294,15 +10294,15 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>-0.14</v>
+        <v>-3</v>
       </c>
       <c r="H273" t="n">
-        <v>163.45</v>
+        <v>160.15</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -10330,15 +10330,15 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H274" t="n">
-        <v>163.35</v>
+        <v>-72.84999999999999</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>-0.2</v>
+        <v>-0.31</v>
       </c>
       <c r="H275" t="n">
-        <v>163.15</v>
+        <v>-72.34999999999999</v>
       </c>
     </row>
     <row r="276">
@@ -10398,14 +10398,14 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubertrip</t>
+          <t>Apple.com/Bill</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>-19.66</v>
+        <v>-30.5</v>
       </c>
       <c r="H276" t="n">
-        <v>118.49</v>
+        <v>-72.04000000000001</v>
       </c>
     </row>
     <row r="277">
@@ -10429,19 +10429,19 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>E_TRFOUT</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Interac e-Transfer® Out</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.2</v>
+        <v>-160</v>
       </c>
       <c r="H277" t="n">
-        <v>118.69</v>
+        <v>-41.85</v>
       </c>
     </row>
     <row r="278">
@@ -10474,10 +10474,10 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>-0.34</v>
+        <v>-0.2</v>
       </c>
       <c r="H278" t="n">
-        <v>118.35</v>
+        <v>118.15</v>
       </c>
     </row>
     <row r="279">
@@ -10501,19 +10501,19 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G279" t="n">
-        <v>-0.2</v>
+        <v>0.31</v>
       </c>
       <c r="H279" t="n">
-        <v>118.15</v>
+        <v>-41.54</v>
       </c>
     </row>
     <row r="280">
@@ -10537,19 +10537,19 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>E_TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Interac e-Transfer® Out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>-160</v>
+        <v>0.2</v>
       </c>
       <c r="H280" t="n">
-        <v>-41.85</v>
+        <v>118.69</v>
       </c>
     </row>
     <row r="281">
@@ -10573,19 +10573,19 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Uber Canada/Ubertrip</t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.31</v>
+        <v>-19.66</v>
       </c>
       <c r="H281" t="n">
-        <v>-41.54</v>
+        <v>118.49</v>
       </c>
     </row>
     <row r="282">
@@ -10604,24 +10604,24 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>E_TRFOUT</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Apple.com/Bill</t>
+          <t>Interac e-Transfer® Out</t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>-30.5</v>
+        <v>-330</v>
       </c>
       <c r="H282" t="n">
-        <v>-72.04000000000001</v>
+        <v>1573.32</v>
       </c>
     </row>
     <row r="283">
@@ -10654,15 +10654,15 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>-0.31</v>
+        <v>-0.34</v>
       </c>
       <c r="H283" t="n">
-        <v>-72.34999999999999</v>
+        <v>118.35</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -10681,24 +10681,24 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Uber Canada/Ubereats</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>-0.5</v>
+        <v>-5</v>
       </c>
       <c r="H284" t="n">
-        <v>-72.84999999999999</v>
+        <v>503.67</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -10726,15 +10726,15 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>-3</v>
+        <v>-0.58</v>
       </c>
       <c r="H285" t="n">
-        <v>160.15</v>
+        <v>464.04</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -10762,10 +10762,10 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>-22</v>
+        <v>-0.29</v>
       </c>
       <c r="H286" t="n">
-        <v>138.15</v>
+        <v>463.75</v>
       </c>
     </row>
     <row r="287">
@@ -10789,19 +10789,19 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>AFT_IN</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Direct deposit from 2325106 ONTARIO</t>
+          <t>Taco Bell 951027</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>589.47</v>
+        <v>-29.42</v>
       </c>
       <c r="H287" t="n">
-        <v>516.62</v>
+        <v>434.33</v>
       </c>
     </row>
     <row r="288">
@@ -10825,19 +10825,19 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="H288" t="n">
-        <v>516.65</v>
+        <v>464.62</v>
       </c>
     </row>
     <row r="289">
@@ -10861,19 +10861,19 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Presto Fare/55nnf5zqlj</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G289" t="n">
-        <v>-3.3</v>
+        <v>-0.39</v>
       </c>
       <c r="H289" t="n">
-        <v>513.35</v>
+        <v>464.7</v>
       </c>
     </row>
     <row r="290">
@@ -10906,10 +10906,10 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="H290" t="n">
-        <v>513.38</v>
+        <v>434.62</v>
       </c>
     </row>
     <row r="291">
@@ -10938,14 +10938,14 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Presto Fare/55710725rj</t>
+          <t>Uber* Eats Pending</t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>-3.3</v>
+        <v>-38.92</v>
       </c>
       <c r="H291" t="n">
-        <v>510.08</v>
+        <v>465.09</v>
       </c>
     </row>
     <row r="292">
@@ -10969,19 +10969,19 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>-0.03</v>
+        <v>0.39</v>
       </c>
       <c r="H292" t="n">
-        <v>510.05</v>
+        <v>504.01</v>
       </c>
     </row>
     <row r="293">
@@ -11014,10 +11014,10 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>-0.7</v>
+        <v>-0.05</v>
       </c>
       <c r="H293" t="n">
-        <v>509.35</v>
+        <v>503.62</v>
       </c>
     </row>
     <row r="294">
@@ -11041,19 +11041,19 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G294" t="n">
-        <v>-0.7</v>
+        <v>0.05</v>
       </c>
       <c r="H294" t="n">
-        <v>508.65</v>
+        <v>508.67</v>
       </c>
     </row>
     <row r="295">
@@ -11077,19 +11077,19 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/55nnf5zqlj</t>
         </is>
       </c>
       <c r="G295" t="n">
-        <v>-0.03</v>
+        <v>-3.3</v>
       </c>
       <c r="H295" t="n">
-        <v>508.62</v>
+        <v>513.35</v>
       </c>
     </row>
     <row r="296">
@@ -11113,19 +11113,19 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.05</v>
+        <v>-0.7</v>
       </c>
       <c r="H296" t="n">
-        <v>508.67</v>
+        <v>508.65</v>
       </c>
     </row>
     <row r="297">
@@ -11149,19 +11149,19 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubereats</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>-5</v>
+        <v>-0.7</v>
       </c>
       <c r="H297" t="n">
-        <v>503.67</v>
+        <v>509.35</v>
       </c>
     </row>
     <row r="298">
@@ -11194,10 +11194,10 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="H298" t="n">
-        <v>503.62</v>
+        <v>510.05</v>
       </c>
     </row>
     <row r="299">
@@ -11221,19 +11221,19 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Presto Fare/55710725rj</t>
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.39</v>
+        <v>-3.3</v>
       </c>
       <c r="H299" t="n">
-        <v>504.01</v>
+        <v>510.08</v>
       </c>
     </row>
     <row r="300">
@@ -11257,19 +11257,19 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Uber* Eats Pending</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G300" t="n">
-        <v>-38.92</v>
+        <v>0.03</v>
       </c>
       <c r="H300" t="n">
-        <v>465.09</v>
+        <v>513.38</v>
       </c>
     </row>
     <row r="301">
@@ -11293,19 +11293,19 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G301" t="n">
-        <v>-0.39</v>
+        <v>0.03</v>
       </c>
       <c r="H301" t="n">
-        <v>464.7</v>
+        <v>516.65</v>
       </c>
     </row>
     <row r="302">
@@ -11329,19 +11329,19 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>AFT_IN</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Direct deposit from 2325106 ONTARIO</t>
         </is>
       </c>
       <c r="G302" t="n">
-        <v>-0.08</v>
+        <v>589.47</v>
       </c>
       <c r="H302" t="n">
-        <v>464.62</v>
+        <v>516.62</v>
       </c>
     </row>
     <row r="303">
@@ -11360,24 +11360,24 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>OBP_OUT</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Online bill payment for TANGERINE MASTERCARD, account ∙∙∙∙5296 (executed at 2024-07-26)</t>
         </is>
       </c>
       <c r="G303" t="n">
-        <v>-0.58</v>
+        <v>-33.48</v>
       </c>
       <c r="H303" t="n">
-        <v>464.04</v>
+        <v>1539.84</v>
       </c>
     </row>
     <row r="304">
@@ -11410,15 +11410,15 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>-0.29</v>
+        <v>-0.03</v>
       </c>
       <c r="H304" t="n">
-        <v>463.75</v>
+        <v>508.62</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45499</v>
+        <v>45500</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -11437,24 +11437,24 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Taco Bell 951027</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>-29.42</v>
+        <v>0.03</v>
       </c>
       <c r="H305" t="n">
-        <v>434.33</v>
+        <v>429.92</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45499</v>
+        <v>45500</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -11473,19 +11473,19 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Presto Fare/5573g7vz8l</t>
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.29</v>
+        <v>-3.3</v>
       </c>
       <c r="H306" t="n">
-        <v>434.62</v>
+        <v>426.62</v>
       </c>
     </row>
     <row r="307">
@@ -11509,19 +11509,19 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
       <c r="H307" t="n">
-        <v>434.59</v>
+        <v>433.19</v>
       </c>
     </row>
     <row r="308">
@@ -11545,19 +11545,19 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/557578bbpj</t>
         </is>
       </c>
       <c r="G308" t="n">
-        <v>-0.7</v>
+        <v>-3.3</v>
       </c>
       <c r="H308" t="n">
-        <v>433.89</v>
+        <v>429.89</v>
       </c>
     </row>
     <row r="309">
@@ -11590,10 +11590,10 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>-0.03</v>
+        <v>-0.7</v>
       </c>
       <c r="H309" t="n">
-        <v>433.86</v>
+        <v>433.16</v>
       </c>
     </row>
     <row r="310">
@@ -11612,24 +11612,24 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>E_TRFOUT</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Interac e-Transfer® Out</t>
         </is>
       </c>
       <c r="G310" t="n">
-        <v>-0.7</v>
+        <v>-17.63</v>
       </c>
       <c r="H310" t="n">
-        <v>433.16</v>
+        <v>1522.21</v>
       </c>
     </row>
     <row r="311">
@@ -11653,19 +11653,19 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.03</v>
+        <v>-0.7</v>
       </c>
       <c r="H311" t="n">
-        <v>433.19</v>
+        <v>433.89</v>
       </c>
     </row>
     <row r="312">
@@ -11689,19 +11689,19 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Presto Fare/557578bbpj</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G312" t="n">
-        <v>-3.3</v>
+        <v>-0.03</v>
       </c>
       <c r="H312" t="n">
-        <v>429.89</v>
+        <v>434.59</v>
       </c>
     </row>
     <row r="313">
@@ -11725,24 +11725,24 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G313" t="n">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="H313" t="n">
-        <v>429.92</v>
+        <v>433.86</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45500</v>
+        <v>45501</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -11761,19 +11761,19 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Presto Fare/5573g7vz8l</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G314" t="n">
-        <v>-3.3</v>
+        <v>-0.41</v>
       </c>
       <c r="H314" t="n">
-        <v>426.62</v>
+        <v>362.62</v>
       </c>
     </row>
     <row r="315">
@@ -11797,19 +11797,19 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Presto Fare/5572l8bx52</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G315" t="n">
-        <v>-3.3</v>
+        <v>-0.1</v>
       </c>
       <c r="H315" t="n">
-        <v>423.32</v>
+        <v>363.03</v>
       </c>
     </row>
     <row r="316">
@@ -11833,19 +11833,19 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Mcdonald's</t>
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.03</v>
+        <v>-9.59</v>
       </c>
       <c r="H316" t="n">
-        <v>423.35</v>
+        <v>363.13</v>
       </c>
     </row>
     <row r="317">
@@ -11878,10 +11878,10 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="H317" t="n">
-        <v>423.38</v>
+        <v>372.72</v>
       </c>
     </row>
     <row r="318">
@@ -11905,19 +11905,19 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Presto Fare/557822gkbs</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G318" t="n">
-        <v>-3.3</v>
+        <v>-0.46</v>
       </c>
       <c r="H318" t="n">
-        <v>420.08</v>
+        <v>372.62</v>
       </c>
     </row>
     <row r="319">
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>-0.7</v>
+        <v>-0.47</v>
       </c>
       <c r="H319" t="n">
-        <v>419.38</v>
+        <v>373.08</v>
       </c>
     </row>
     <row r="320">
@@ -11977,19 +11977,19 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Uber Canada/Ubereats</t>
         </is>
       </c>
       <c r="G320" t="n">
-        <v>-0.03</v>
+        <v>-45.53</v>
       </c>
       <c r="H320" t="n">
-        <v>419.35</v>
+        <v>373.55</v>
       </c>
     </row>
     <row r="321">
@@ -12022,10 +12022,10 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>-0.03</v>
+        <v>-0.7</v>
       </c>
       <c r="H321" t="n">
-        <v>419.32</v>
+        <v>418.62</v>
       </c>
     </row>
     <row r="322">
@@ -12049,19 +12049,19 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>-0.7</v>
+        <v>0.46</v>
       </c>
       <c r="H322" t="n">
-        <v>418.62</v>
+        <v>419.08</v>
       </c>
     </row>
     <row r="323">
@@ -12085,19 +12085,19 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0.46</v>
+        <v>-0.03</v>
       </c>
       <c r="H323" t="n">
-        <v>419.08</v>
+        <v>419.35</v>
       </c>
     </row>
     <row r="324">
@@ -12121,19 +12121,19 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubereats</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G324" t="n">
-        <v>-45.53</v>
+        <v>-0.7</v>
       </c>
       <c r="H324" t="n">
-        <v>373.55</v>
+        <v>419.38</v>
       </c>
     </row>
     <row r="325">
@@ -12157,19 +12157,19 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/557822gkbs</t>
         </is>
       </c>
       <c r="G325" t="n">
-        <v>-0.47</v>
+        <v>-3.3</v>
       </c>
       <c r="H325" t="n">
-        <v>373.08</v>
+        <v>420.08</v>
       </c>
     </row>
     <row r="326">
@@ -12193,19 +12193,19 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G326" t="n">
-        <v>-0.46</v>
+        <v>0.03</v>
       </c>
       <c r="H326" t="n">
-        <v>372.62</v>
+        <v>423.38</v>
       </c>
     </row>
     <row r="327">
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="H327" t="n">
-        <v>372.72</v>
+        <v>423.35</v>
       </c>
     </row>
     <row r="328">
@@ -12270,14 +12270,14 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Mcdonald's</t>
+          <t>Presto Fare/5572l8bx52</t>
         </is>
       </c>
       <c r="G328" t="n">
-        <v>-9.59</v>
+        <v>-3.3</v>
       </c>
       <c r="H328" t="n">
-        <v>363.13</v>
+        <v>423.32</v>
       </c>
     </row>
     <row r="329">
@@ -12310,15 +12310,15 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>-0.1</v>
+        <v>-0.03</v>
       </c>
       <c r="H329" t="n">
-        <v>363.03</v>
+        <v>419.32</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45501</v>
+        <v>45502</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -12337,19 +12337,19 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>-0.41</v>
+        <v>0.61</v>
       </c>
       <c r="H330" t="n">
-        <v>362.62</v>
+        <v>355.23</v>
       </c>
     </row>
     <row r="331">
@@ -12373,19 +12373,19 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.03</v>
+        <v>-0.61</v>
       </c>
       <c r="H331" t="n">
-        <v>362.65</v>
+        <v>287.67</v>
       </c>
     </row>
     <row r="332">
@@ -12409,19 +12409,19 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Presto Fare/557fjhl79x</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G332" t="n">
-        <v>-3.3</v>
+        <v>-0.64</v>
       </c>
       <c r="H332" t="n">
-        <v>359.35</v>
+        <v>288.28</v>
       </c>
     </row>
     <row r="333">
@@ -12454,10 +12454,10 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H333" t="n">
-        <v>359.38</v>
+        <v>288.92</v>
       </c>
     </row>
     <row r="334">
@@ -12490,10 +12490,10 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="H334" t="n">
-        <v>359.35</v>
+        <v>287.62</v>
       </c>
     </row>
     <row r="335">
@@ -12517,19 +12517,19 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Uber Canada/Ubereats</t>
         </is>
       </c>
       <c r="G335" t="n">
-        <v>-0.7</v>
+        <v>-61.36</v>
       </c>
       <c r="H335" t="n">
-        <v>358.65</v>
+        <v>293.87</v>
       </c>
     </row>
     <row r="336">
@@ -12553,19 +12553,19 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Presto Fare/557d20xfc5</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G336" t="n">
-        <v>-3.3</v>
+        <v>-0.03</v>
       </c>
       <c r="H336" t="n">
-        <v>355.35</v>
+        <v>354.62</v>
       </c>
     </row>
     <row r="337">
@@ -12589,19 +12589,19 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Uber Canada/Ubereats</t>
         </is>
       </c>
       <c r="G337" t="n">
-        <v>-0.7</v>
+        <v>-5</v>
       </c>
       <c r="H337" t="n">
-        <v>354.65</v>
+        <v>288.87</v>
       </c>
     </row>
     <row r="338">
@@ -12625,19 +12625,19 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Presto Fare/557d20xfc5</t>
         </is>
       </c>
       <c r="G338" t="n">
-        <v>-0.03</v>
+        <v>-3.3</v>
       </c>
       <c r="H338" t="n">
-        <v>354.62</v>
+        <v>355.35</v>
       </c>
     </row>
     <row r="339">
@@ -12661,19 +12661,19 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G339" t="n">
-        <v>0.61</v>
+        <v>-0.7</v>
       </c>
       <c r="H339" t="n">
-        <v>355.23</v>
+        <v>358.65</v>
       </c>
     </row>
     <row r="340">
@@ -12697,19 +12697,19 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubereats</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G340" t="n">
-        <v>-61.36</v>
+        <v>-0.03</v>
       </c>
       <c r="H340" t="n">
-        <v>293.87</v>
+        <v>359.35</v>
       </c>
     </row>
     <row r="341">
@@ -12733,19 +12733,19 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubereats</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G341" t="n">
-        <v>-5</v>
+        <v>0.03</v>
       </c>
       <c r="H341" t="n">
-        <v>288.87</v>
+        <v>359.38</v>
       </c>
     </row>
     <row r="342">
@@ -12769,19 +12769,19 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Presto Fare/557fjhl79x</t>
         </is>
       </c>
       <c r="G342" t="n">
-        <v>0.05</v>
+        <v>-3.3</v>
       </c>
       <c r="H342" t="n">
-        <v>288.92</v>
+        <v>359.35</v>
       </c>
     </row>
     <row r="343">
@@ -12805,19 +12805,19 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G343" t="n">
-        <v>-0.64</v>
+        <v>0.03</v>
       </c>
       <c r="H343" t="n">
-        <v>288.28</v>
+        <v>362.65</v>
       </c>
     </row>
     <row r="344">
@@ -12850,15 +12850,15 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>-0.61</v>
+        <v>-0.7</v>
       </c>
       <c r="H344" t="n">
-        <v>287.67</v>
+        <v>354.65</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -12886,10 +12886,10 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="H345" t="n">
-        <v>287.62</v>
+        <v>179.43</v>
       </c>
     </row>
     <row r="346">
@@ -12913,19 +12913,19 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G346" t="n">
-        <v>0.03</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H346" t="n">
-        <v>287.65</v>
+        <v>178.62</v>
       </c>
     </row>
     <row r="347">
@@ -12949,19 +12949,19 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Presto Fare/557647rnbv</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G347" t="n">
-        <v>-3.3</v>
+        <v>0.26</v>
       </c>
       <c r="H347" t="n">
-        <v>284.35</v>
+        <v>178.88</v>
       </c>
     </row>
     <row r="348">
@@ -12985,19 +12985,19 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Steamgames.com 4259522</t>
         </is>
       </c>
       <c r="G348" t="n">
-        <v>-0.7</v>
+        <v>-26.2</v>
       </c>
       <c r="H348" t="n">
-        <v>283.65</v>
+        <v>152.68</v>
       </c>
     </row>
     <row r="349">
@@ -13021,19 +13021,19 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G349" t="n">
-        <v>-0.03</v>
+        <v>0.47</v>
       </c>
       <c r="H349" t="n">
-        <v>283.62</v>
+        <v>152.09</v>
       </c>
     </row>
     <row r="350">
@@ -13057,19 +13057,19 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G350" t="n">
-        <v>0.93</v>
+        <v>-0.26</v>
       </c>
       <c r="H350" t="n">
-        <v>284.55</v>
+        <v>151.62</v>
       </c>
     </row>
     <row r="351">
@@ -13093,19 +13093,19 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Uber Canada/Ubereats</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G351" t="n">
-        <v>-92.79000000000001</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H351" t="n">
-        <v>191.76</v>
+        <v>179.47</v>
       </c>
     </row>
     <row r="352">
@@ -13129,19 +13129,19 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Tokyo Smoke Cumberland</t>
         </is>
       </c>
       <c r="G352" t="n">
-        <v>-0.21</v>
+        <v>-47.46</v>
       </c>
       <c r="H352" t="n">
-        <v>191.55</v>
+        <v>104.63</v>
       </c>
     </row>
     <row r="353">
@@ -13174,10 +13174,10 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>-0.93</v>
+        <v>-0.54</v>
       </c>
       <c r="H353" t="n">
-        <v>190.62</v>
+        <v>104.09</v>
       </c>
     </row>
     <row r="354">
@@ -13201,19 +13201,19 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G354" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.47</v>
       </c>
       <c r="H354" t="n">
-        <v>190.69</v>
+        <v>103.62</v>
       </c>
     </row>
     <row r="355">
@@ -13237,19 +13237,19 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Mcdonald's</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G355" t="n">
-        <v>-6.81</v>
+        <v>-0.8</v>
       </c>
       <c r="H355" t="n">
-        <v>183.88</v>
+        <v>151.88</v>
       </c>
     </row>
     <row r="356">
@@ -13273,19 +13273,19 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>TRFOUT</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Transfer out</t>
         </is>
       </c>
       <c r="G356" t="n">
-        <v>0.04</v>
+        <v>-0.19</v>
       </c>
       <c r="H356" t="n">
-        <v>183.92</v>
+        <v>179.54</v>
       </c>
     </row>
     <row r="357">
@@ -13309,19 +13309,19 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Mcdonald's</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G357" t="n">
-        <v>-4.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H357" t="n">
-        <v>179.73</v>
+        <v>190.69</v>
       </c>
     </row>
     <row r="358">
@@ -13345,19 +13345,19 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G358" t="n">
-        <v>-0.19</v>
+        <v>0.04</v>
       </c>
       <c r="H358" t="n">
-        <v>179.54</v>
+        <v>183.92</v>
       </c>
     </row>
     <row r="359">
@@ -13381,19 +13381,19 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Mcdonald's</t>
         </is>
       </c>
       <c r="G359" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-6.81</v>
       </c>
       <c r="H359" t="n">
-        <v>179.47</v>
+        <v>183.88</v>
       </c>
     </row>
     <row r="360">
@@ -13426,10 +13426,10 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>-0.04</v>
+        <v>-0.93</v>
       </c>
       <c r="H360" t="n">
-        <v>179.43</v>
+        <v>190.62</v>
       </c>
     </row>
     <row r="361">
@@ -13462,10 +13462,10 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.21</v>
       </c>
       <c r="H361" t="n">
-        <v>178.62</v>
+        <v>191.55</v>
       </c>
     </row>
     <row r="362">
@@ -13489,19 +13489,19 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Uber Canada/Ubereats</t>
         </is>
       </c>
       <c r="G362" t="n">
-        <v>0.26</v>
+        <v>-92.79000000000001</v>
       </c>
       <c r="H362" t="n">
-        <v>178.88</v>
+        <v>191.76</v>
       </c>
     </row>
     <row r="363">
@@ -13525,19 +13525,19 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Steamgames.com 4259522</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G363" t="n">
-        <v>-26.2</v>
+        <v>0.93</v>
       </c>
       <c r="H363" t="n">
-        <v>152.68</v>
+        <v>284.55</v>
       </c>
     </row>
     <row r="364">
@@ -13570,10 +13570,10 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>-0.8</v>
+        <v>-0.03</v>
       </c>
       <c r="H364" t="n">
-        <v>151.88</v>
+        <v>283.62</v>
       </c>
     </row>
     <row r="365">
@@ -13606,10 +13606,10 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>-0.26</v>
+        <v>-0.7</v>
       </c>
       <c r="H365" t="n">
-        <v>151.62</v>
+        <v>283.65</v>
       </c>
     </row>
     <row r="366">
@@ -13633,19 +13633,19 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>CASHBACK</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Cashback received</t>
+          <t>Presto Fare/557647rnbv</t>
         </is>
       </c>
       <c r="G366" t="n">
-        <v>0.47</v>
+        <v>-3.3</v>
       </c>
       <c r="H366" t="n">
-        <v>152.09</v>
+        <v>284.35</v>
       </c>
     </row>
     <row r="367">
@@ -13669,19 +13669,19 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>SPEND</t>
+          <t>CASHBACK</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Tokyo Smoke Cumberland</t>
+          <t>Cashback received</t>
         </is>
       </c>
       <c r="G367" t="n">
-        <v>-47.46</v>
+        <v>0.03</v>
       </c>
       <c r="H367" t="n">
-        <v>104.63</v>
+        <v>287.65</v>
       </c>
     </row>
     <row r="368">
@@ -13705,24 +13705,24 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>SPEND</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Mcdonald's</t>
         </is>
       </c>
       <c r="G368" t="n">
-        <v>-0.54</v>
+        <v>-4.19</v>
       </c>
       <c r="H368" t="n">
-        <v>104.09</v>
+        <v>179.73</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -13736,24 +13736,24 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>cheq</t>
+          <t>bills</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>TRFOUT</t>
+          <t>E_TRFOUT</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Transfer out</t>
+          <t>Interac e-Transfer® Out</t>
         </is>
       </c>
       <c r="G369" t="n">
-        <v>-0.47</v>
+        <v>-1518</v>
       </c>
       <c r="H369" t="n">
-        <v>103.62</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="370">
